--- a/app/excelTemplates/template_mubaligh.xlsx
+++ b/app/excelTemplates/template_mubaligh.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Akademik\Semester 5\Pengembangan Web-Prak\challenge-1\Broadcast\app\excelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\polban\sem 5\web dev challenge\app\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C128BE-BADD-4618-AA50-396798FE9837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F37F3-459A-4D58-9EEA-CBD7371503FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{426D1D3B-EB04-4C76-AE66-21FA34726265}"/>
+    <workbookView xWindow="9000" yWindow="4515" windowWidth="16200" windowHeight="9270" xr2:uid="{4A92A4DA-1AF0-45A9-8378-A9FBACE63D64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT DISINI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,29 +27,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>No. HP</t>
+    <t>Nama Mubaligh</t>
   </si>
   <si>
-    <t>Nama Mubaligh</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No. HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+contoh: 08123456789</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,10 +128,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -139,39 +167,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -223,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -334,13 +362,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -349,6 +370,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,40 +441,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904BC50-8C33-41E8-9DEF-1D5CE165140C}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FABC53-9A51-4658-8268-46E7077996EC}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="39" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>